--- a/Data/Schedules.xlsx
+++ b/Data/Schedules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34642\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34642\OneDrive\Escritorio\Synthesis Project I\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F3FE1D-33C6-4D01-9CC7-B215F63EC336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE859D5D-F9C2-4C82-8E01-1AC6371A1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{540DEE2C-3DB2-4F67-B4F3-E6692A89C2B7}"/>
   </bookViews>
@@ -53,15 +53,9 @@
     <t>MON</t>
   </si>
   <si>
-    <t>TUES</t>
-  </si>
-  <si>
     <t>WED</t>
   </si>
   <si>
-    <t>THURS</t>
-  </si>
-  <si>
     <t>FRI</t>
   </si>
   <si>
@@ -2682,6 +2676,12 @@
   </si>
   <si>
     <t>Zlatko</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>THU</t>
   </si>
 </sst>
 </file>
@@ -3060,13 +3060,14 @@
   <dimension ref="A1:J872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
@@ -3080,37 +3081,37 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -3142,7 +3143,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>0.41666666666666663</v>
@@ -3174,7 +3175,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>0.375</v>
@@ -3206,7 +3207,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>0.16666666666666666</v>
@@ -3238,7 +3239,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>0.29166666666666663</v>
@@ -3270,7 +3271,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>0.25</v>
@@ -3302,7 +3303,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>0.33333333333333331</v>
@@ -3334,7 +3335,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>0.33333333333333331</v>
@@ -3366,7 +3367,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>0.33333333333333331</v>
@@ -3398,7 +3399,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>0.33333333333333331</v>
@@ -3430,7 +3431,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>0.25</v>
@@ -3462,7 +3463,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>0.33333333333333331</v>
@@ -3494,7 +3495,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>0.375</v>
@@ -3526,7 +3527,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>0.375</v>
@@ -3558,7 +3559,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>0.41666666666666663</v>
@@ -3590,7 +3591,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>0.33333333333333331</v>
@@ -3622,7 +3623,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>0.41666666666666663</v>
@@ -3654,7 +3655,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>0.54166666666666663</v>
@@ -3686,7 +3687,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>0.33333333333333331</v>
@@ -3718,7 +3719,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>0.41666666666666663</v>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>0.5</v>
@@ -3782,7 +3783,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>0.33333333333333331</v>
@@ -3814,7 +3815,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1">
         <v>0.375</v>
@@ -3846,7 +3847,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>0.375</v>
@@ -3878,7 +3879,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>0.5</v>
@@ -3910,7 +3911,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
         <v>0.33333333333333331</v>
@@ -3942,7 +3943,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
         <v>0.33333333333333331</v>
@@ -3974,7 +3975,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
         <v>0.16666666666666666</v>
@@ -4006,7 +4007,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>0.33333333333333331</v>
@@ -4038,7 +4039,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1">
         <v>0.375</v>
@@ -4070,7 +4071,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>0.33333333333333331</v>
@@ -4102,7 +4103,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.33333333333333331</v>
@@ -4134,7 +4135,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1">
         <v>0.25</v>
@@ -4166,7 +4167,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>0.375</v>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
         <v>0.25</v>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
         <v>0.33333333333333331</v>
@@ -4262,7 +4263,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
         <v>0.20833333333333331</v>
@@ -4294,7 +4295,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1">
         <v>0.45833333333333331</v>
@@ -4326,7 +4327,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1">
         <v>0.29166666666666663</v>
@@ -4358,7 +4359,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1">
         <v>0.375</v>
@@ -4390,7 +4391,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1">
         <v>0.33333333333333331</v>
@@ -4422,7 +4423,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1">
         <v>0.29166666666666663</v>
@@ -4454,7 +4455,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <v>0.16666666666666666</v>
@@ -4486,7 +4487,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1">
         <v>0.20833333333333331</v>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
         <v>0.41666666666666663</v>
@@ -4550,7 +4551,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1">
         <v>0.54166666666666663</v>
@@ -4582,7 +4583,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
         <v>0.33333333333333331</v>
@@ -4614,7 +4615,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
         <v>0.375</v>
@@ -4646,7 +4647,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1">
         <v>0.375</v>
@@ -4678,7 +4679,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1">
         <v>0.33333333333333331</v>
@@ -4710,7 +4711,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1">
         <v>0.41666666666666663</v>
@@ -4742,7 +4743,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1">
         <v>0.375</v>
@@ -4774,7 +4775,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1">
         <v>0.29166666666666663</v>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1">
         <v>0.41666666666666663</v>
@@ -4838,7 +4839,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1">
         <v>0.41666666666666663</v>
@@ -4870,7 +4871,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1">
         <v>0.33333333333333331</v>
@@ -4902,7 +4903,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1">
         <v>0.29166666666666663</v>
@@ -4934,7 +4935,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1">
         <v>0.375</v>
@@ -4966,7 +4967,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1">
         <v>0.41666666666666663</v>
@@ -4998,7 +4999,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1">
         <v>0.375</v>
@@ -5030,7 +5031,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1">
         <v>0.375</v>
@@ -5062,7 +5063,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1">
         <v>0.33333333333333331</v>
@@ -5094,7 +5095,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
         <v>0.33333333333333331</v>
@@ -5126,7 +5127,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1">
         <v>0.41666666666666663</v>
@@ -5158,7 +5159,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="1">
         <v>0.33333333333333331</v>
@@ -5190,7 +5191,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1">
         <v>0.375</v>
@@ -5222,7 +5223,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1">
         <v>0.95833333333333326</v>
@@ -5254,7 +5255,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1">
         <v>0.33333333333333331</v>
@@ -5286,7 +5287,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1">
         <v>0.29166666666666663</v>
@@ -5318,7 +5319,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1">
         <v>0.25</v>
@@ -5350,7 +5351,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1">
         <v>0.33333333333333331</v>
@@ -5382,7 +5383,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1">
         <v>0.29166666666666663</v>
@@ -5414,7 +5415,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1">
         <v>0.33333333333333331</v>
@@ -5446,7 +5447,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1">
         <v>0.41666666666666663</v>
@@ -5478,7 +5479,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1">
         <v>0.33333333333333331</v>
@@ -5510,7 +5511,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1">
         <v>0.375</v>
@@ -5542,7 +5543,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1">
         <v>0.29166666666666663</v>
@@ -5574,7 +5575,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1">
         <v>0.375</v>
@@ -5606,7 +5607,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1">
         <v>0.29166666666666663</v>
@@ -5638,7 +5639,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1">
         <v>0.41666666666666663</v>
@@ -5670,7 +5671,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1">
         <v>0.375</v>
@@ -5702,7 +5703,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1">
         <v>0.375</v>
@@ -5734,7 +5735,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="1">
         <v>0.375</v>
@@ -5766,7 +5767,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" s="1">
         <v>0.33333333333333331</v>
@@ -5798,7 +5799,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1">
         <v>0.41666666666666663</v>
@@ -5830,7 +5831,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1">
         <v>0.375</v>
@@ -5862,7 +5863,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1">
         <v>0.45833333333333331</v>
@@ -5894,7 +5895,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1">
         <v>0.33333333333333331</v>
@@ -5926,7 +5927,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1">
         <v>0.29166666666666663</v>
@@ -5958,7 +5959,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B91" s="1">
         <v>0.33333333333333331</v>
@@ -5990,7 +5991,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B92" s="1">
         <v>0.41666666666666663</v>
@@ -6022,7 +6023,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1">
         <v>0.29166666666666663</v>
@@ -6054,7 +6055,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1">
         <v>0.375</v>
@@ -6086,7 +6087,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1">
         <v>0.41666666666666663</v>
@@ -6118,7 +6119,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1">
         <v>0.41666666666666663</v>
@@ -6150,7 +6151,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1">
         <v>0.33333333333333331</v>
@@ -6182,7 +6183,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="1">
         <v>0.375</v>
@@ -6214,7 +6215,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1">
         <v>0.375</v>
@@ -6246,7 +6247,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1">
         <v>0.33333333333333331</v>
@@ -6278,7 +6279,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1">
         <v>0.375</v>
@@ -6310,7 +6311,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1">
         <v>0.375</v>
@@ -6342,7 +6343,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1">
         <v>0.41666666666666663</v>
@@ -6374,7 +6375,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104" s="1">
         <v>0.375</v>
@@ -6406,7 +6407,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1">
         <v>0.41666666666666663</v>
@@ -6438,7 +6439,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1">
         <v>0.16666666666666666</v>
@@ -6470,7 +6471,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1">
         <v>0.33333333333333331</v>
@@ -6502,7 +6503,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1">
         <v>0.29166666666666663</v>
@@ -6534,7 +6535,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1">
         <v>0.41666666666666663</v>
@@ -6566,7 +6567,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1">
         <v>0.25</v>
@@ -6598,7 +6599,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1">
         <v>0.375</v>
@@ -6630,7 +6631,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1">
         <v>0.375</v>
@@ -6662,7 +6663,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1">
         <v>0.29166666666666663</v>
@@ -6694,7 +6695,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B114" s="1">
         <v>0.33333333333333331</v>
@@ -6726,7 +6727,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1">
         <v>0.375</v>
@@ -6758,7 +6759,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1">
         <v>0.16666666666666666</v>
@@ -6790,7 +6791,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" s="1">
         <v>0.33333333333333331</v>
@@ -6822,7 +6823,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1">
         <v>0.375</v>
@@ -6854,7 +6855,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" s="1">
         <v>0.375</v>
@@ -6886,7 +6887,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B120" s="1">
         <v>0.375</v>
@@ -6918,7 +6919,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1">
         <v>0.375</v>
@@ -6950,7 +6951,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1">
         <v>0.375</v>
@@ -6982,7 +6983,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -7014,7 +7015,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1">
         <v>0.41666666666666663</v>
@@ -7046,7 +7047,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="1">
         <v>0.33333333333333331</v>
@@ -7078,7 +7079,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1">
         <v>0.375</v>
@@ -7110,7 +7111,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127" s="1">
         <v>0.45833333333333331</v>
@@ -7142,7 +7143,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" s="1">
         <v>0.45833333333333331</v>
@@ -7174,7 +7175,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1">
         <v>0.41666666666666663</v>
@@ -7206,7 +7207,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1">
         <v>0.375</v>
@@ -7238,7 +7239,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B131" s="1">
         <v>0.25</v>
@@ -7270,7 +7271,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1">
         <v>0.33333333333333331</v>
@@ -7302,7 +7303,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1">
         <v>0.41666666666666663</v>
@@ -7334,7 +7335,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B134" s="1">
         <v>0.33333333333333331</v>
@@ -7366,7 +7367,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B135" s="1">
         <v>0.29166666666666663</v>
@@ -7398,7 +7399,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B136" s="1">
         <v>0.29166666666666663</v>
@@ -7430,13 +7431,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B137" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7462,7 +7463,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B138" s="1">
         <v>0.375</v>
@@ -7494,7 +7495,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B139" s="1">
         <v>0.33333333333333331</v>
@@ -7526,7 +7527,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B140" s="1">
         <v>0.33333333333333331</v>
@@ -7558,7 +7559,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B141" s="1">
         <v>0.33333333333333331</v>
@@ -7590,7 +7591,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B142" s="1">
         <v>0.375</v>
@@ -7622,7 +7623,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B143" s="1">
         <v>0.375</v>
@@ -7654,7 +7655,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B144" s="1">
         <v>0.33333333333333331</v>
@@ -7686,7 +7687,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145" s="1">
         <v>0.33333333333333331</v>
@@ -7718,7 +7719,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B146" s="1">
         <v>0.33333333333333331</v>
@@ -7750,7 +7751,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B147" s="1">
         <v>0.41666666666666663</v>
@@ -7782,7 +7783,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B148" s="1">
         <v>0.29166666666666663</v>
@@ -7814,7 +7815,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B149" s="1">
         <v>0.29166666666666663</v>
@@ -7846,7 +7847,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B150" s="1">
         <v>0.41666666666666663</v>
@@ -7878,7 +7879,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B151" s="1">
         <v>0.375</v>
@@ -7910,7 +7911,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B152" s="1">
         <v>0.54166666666666663</v>
@@ -7942,7 +7943,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B153" s="1">
         <v>0.375</v>
@@ -7974,7 +7975,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B154" s="1">
         <v>0.375</v>
@@ -8006,7 +8007,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B155" s="1">
         <v>0.375</v>
@@ -8038,7 +8039,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B156" s="1">
         <v>0.375</v>
@@ -8070,7 +8071,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B157" s="1">
         <v>0.375</v>
@@ -8102,7 +8103,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B158" s="1">
         <v>0.375</v>
@@ -8134,7 +8135,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B159" s="1">
         <v>0.45833333333333331</v>
@@ -8166,7 +8167,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B160" s="1">
         <v>0.375</v>
@@ -8198,7 +8199,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B161" s="1">
         <v>0.41666666666666663</v>
@@ -8230,7 +8231,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B162" s="1">
         <v>0.33333333333333331</v>
@@ -8262,7 +8263,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B163" s="1">
         <v>0.45833333333333331</v>
@@ -8294,7 +8295,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B164" s="1">
         <v>0.29166666666666663</v>
@@ -8326,7 +8327,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B165" s="1">
         <v>0.33333333333333331</v>
@@ -8358,7 +8359,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B166" s="1">
         <v>0.375</v>
@@ -8390,7 +8391,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167" s="1">
         <v>0.375</v>
@@ -8422,7 +8423,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B168" s="1">
         <v>0.45833333333333331</v>
@@ -8454,7 +8455,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B169" s="1">
         <v>0.375</v>
@@ -8486,7 +8487,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B170" s="1">
         <v>0.29166666666666663</v>
@@ -8518,7 +8519,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B171" s="1">
         <v>0.41666666666666663</v>
@@ -8550,7 +8551,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B172" s="1">
         <v>0.33333333333333331</v>
@@ -8582,7 +8583,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B173" s="1">
         <v>0.45833333333333331</v>
@@ -8614,7 +8615,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B174" s="1">
         <v>0.45833333333333331</v>
@@ -8646,7 +8647,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B175" s="1">
         <v>0.375</v>
@@ -8678,7 +8679,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B176" s="1">
         <v>0.33333333333333331</v>
@@ -8710,7 +8711,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B177" s="1">
         <v>0.375</v>
@@ -8742,7 +8743,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B178" s="1">
         <v>0.33333333333333331</v>
@@ -8774,7 +8775,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B179" s="1">
         <v>0.41666666666666663</v>
@@ -8806,7 +8807,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B180" s="1">
         <v>0.33333333333333331</v>
@@ -8838,7 +8839,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B181" s="1">
         <v>0.45833333333333331</v>
@@ -8870,7 +8871,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B182" s="1">
         <v>0.41666666666666663</v>
@@ -8902,7 +8903,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B183" s="1">
         <v>0.25</v>
@@ -8934,7 +8935,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B184" s="1">
         <v>0.29166666666666663</v>
@@ -8966,7 +8967,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B185" s="1">
         <v>0.33333333333333331</v>
@@ -8998,7 +8999,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B186" s="1">
         <v>0.29166666666666663</v>
@@ -9030,7 +9031,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B187" s="1">
         <v>0.16666666666666666</v>
@@ -9062,7 +9063,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B188" s="1">
         <v>0.33333333333333331</v>
@@ -9094,7 +9095,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B189" s="1">
         <v>0.45833333333333331</v>
@@ -9126,7 +9127,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B190" s="1">
         <v>0.33333333333333331</v>
@@ -9158,7 +9159,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B191" s="1">
         <v>0.45833333333333331</v>
@@ -9190,7 +9191,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B192" s="1">
         <v>0.16666666666666666</v>
@@ -9222,7 +9223,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B193" s="1">
         <v>0.41666666666666663</v>
@@ -9254,7 +9255,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B194" s="1">
         <v>0.375</v>
@@ -9286,7 +9287,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B195" s="1">
         <v>0.45833333333333331</v>
@@ -9318,7 +9319,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B196" s="1">
         <v>0.5</v>
@@ -9350,7 +9351,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B197" s="1">
         <v>0.29166666666666663</v>
@@ -9382,7 +9383,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B198" s="1">
         <v>0.375</v>
@@ -9414,7 +9415,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B199" s="1">
         <v>0.375</v>
@@ -9446,7 +9447,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B200" s="1">
         <v>0.33333333333333331</v>
@@ -9478,7 +9479,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B201" s="1">
         <v>0.29166666666666663</v>
@@ -9510,7 +9511,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B202" s="1">
         <v>0.45833333333333331</v>
@@ -9542,7 +9543,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B203" s="1">
         <v>0.33333333333333331</v>
@@ -9574,7 +9575,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B204" s="1">
         <v>0.41666666666666663</v>
@@ -9606,7 +9607,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B205" s="1">
         <v>0.33333333333333331</v>
@@ -9638,7 +9639,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B206" s="1">
         <v>0.29166666666666663</v>
@@ -9670,7 +9671,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B207" s="1">
         <v>0.375</v>
@@ -9702,7 +9703,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B208" s="1">
         <v>0.375</v>
@@ -9734,7 +9735,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B209" s="1">
         <v>0.33333333333333331</v>
@@ -9766,7 +9767,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B210" s="1">
         <v>0.41666666666666663</v>
@@ -9798,7 +9799,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B211" s="1">
         <v>0.29166666666666663</v>
@@ -9830,7 +9831,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B212" s="1">
         <v>0.25</v>
@@ -9862,7 +9863,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B213" s="1">
         <v>0.41666666666666663</v>
@@ -9894,7 +9895,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B214" s="1">
         <v>0.33333333333333331</v>
@@ -9926,7 +9927,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B215" s="1">
         <v>0.375</v>
@@ -9958,7 +9959,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B216" s="1">
         <v>0.33333333333333331</v>
@@ -9990,7 +9991,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B217" s="1">
         <v>0.41666666666666663</v>
@@ -10022,7 +10023,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B218" s="1">
         <v>0.375</v>
@@ -10054,7 +10055,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B219" s="1">
         <v>0.375</v>
@@ -10086,7 +10087,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B220" s="1">
         <v>0.33333333333333331</v>
@@ -10118,13 +10119,13 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B221" s="1">
         <v>0.625</v>
       </c>
       <c r="C221" s="1">
-        <v>1.0416666666666665</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -10150,7 +10151,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B222" s="1">
         <v>0.45833333333333331</v>
@@ -10182,7 +10183,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B223" s="1">
         <v>0.45833333333333331</v>
@@ -10214,7 +10215,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B224" s="1">
         <v>0.33333333333333331</v>
@@ -10246,7 +10247,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B225" s="1">
         <v>0.375</v>
@@ -10278,7 +10279,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B226" s="1">
         <v>0.45833333333333331</v>
@@ -10310,7 +10311,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B227" s="1">
         <v>0.375</v>
@@ -10342,7 +10343,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B228" s="1">
         <v>0.20833333333333331</v>
@@ -10374,7 +10375,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B229" s="1">
         <v>0.45833333333333331</v>
@@ -10406,13 +10407,13 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B230" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -10438,7 +10439,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B231" s="1">
         <v>0.33333333333333331</v>
@@ -10470,7 +10471,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B232" s="1">
         <v>0.54166666666666663</v>
@@ -10502,7 +10503,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B233" s="1">
         <v>0.41666666666666663</v>
@@ -10534,7 +10535,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B234" s="1">
         <v>0.41666666666666663</v>
@@ -10566,7 +10567,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B235" s="1">
         <v>0.25</v>
@@ -10598,7 +10599,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B236" s="1">
         <v>0.29166666666666663</v>
@@ -10630,7 +10631,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B237" s="1">
         <v>0.33333333333333331</v>
@@ -10662,7 +10663,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B238" s="1">
         <v>0.375</v>
@@ -10694,7 +10695,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B239" s="1">
         <v>0.29166666666666663</v>
@@ -10726,7 +10727,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B240" s="1">
         <v>0.375</v>
@@ -10758,7 +10759,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B241" s="1">
         <v>0.29166666666666663</v>
@@ -10790,7 +10791,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B242" s="1">
         <v>0.375</v>
@@ -10822,7 +10823,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B243" s="1">
         <v>0.375</v>
@@ -10854,7 +10855,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B244" s="1">
         <v>0.33333333333333331</v>
@@ -10886,7 +10887,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B245" s="1">
         <v>0.41666666666666663</v>
@@ -10918,7 +10919,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B246" s="1">
         <v>0.29166666666666663</v>
@@ -10950,7 +10951,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B247" s="1">
         <v>0.375</v>
@@ -10982,7 +10983,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B248" s="1">
         <v>0.33333333333333331</v>
@@ -11014,7 +11015,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B249" s="1">
         <v>0.33333333333333331</v>
@@ -11046,7 +11047,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B250" s="1">
         <v>0.375</v>
@@ -11078,7 +11079,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B251" s="1">
         <v>0.20833333333333331</v>
@@ -11110,7 +11111,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B252" s="1">
         <v>0.29166666666666663</v>
@@ -11142,7 +11143,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B253" s="1">
         <v>0.33333333333333331</v>
@@ -11174,7 +11175,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B254" s="1">
         <v>0.375</v>
@@ -11206,7 +11207,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B255" s="1">
         <v>0.33333333333333331</v>
@@ -11238,7 +11239,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B256" s="1">
         <v>0.375</v>
@@ -11270,7 +11271,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B257" s="1">
         <v>0.29166666666666663</v>
@@ -11302,7 +11303,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B258" s="1">
         <v>0.45833333333333331</v>
@@ -11334,7 +11335,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B259" s="1">
         <v>0.33333333333333331</v>
@@ -11366,7 +11367,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B260" s="1">
         <v>0.375</v>
@@ -11398,7 +11399,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B261" s="1">
         <v>0.33333333333333331</v>
@@ -11430,7 +11431,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B262" s="1">
         <v>0.375</v>
@@ -11462,7 +11463,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B263" s="1">
         <v>0.375</v>
@@ -11494,7 +11495,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B264" s="1">
         <v>0.375</v>
@@ -11526,7 +11527,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B265" s="1">
         <v>0.20833333333333331</v>
@@ -11558,7 +11559,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B266" s="1">
         <v>0.375</v>
@@ -11590,7 +11591,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B267" s="1">
         <v>0.33333333333333331</v>
@@ -11622,7 +11623,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B268" s="1">
         <v>0.375</v>
@@ -11654,7 +11655,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B269" s="1">
         <v>0.25</v>
@@ -11686,7 +11687,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B270" s="1">
         <v>0.33333333333333331</v>
@@ -11718,7 +11719,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B271" s="1">
         <v>0.45833333333333331</v>
@@ -11750,7 +11751,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B272" s="1">
         <v>0.33333333333333331</v>
@@ -11782,7 +11783,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B273" s="1">
         <v>0.375</v>
@@ -11814,7 +11815,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B274" s="1">
         <v>0.25</v>
@@ -11846,7 +11847,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B275" s="1">
         <v>0.45833333333333331</v>
@@ -11878,7 +11879,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B276" s="1">
         <v>0.5</v>
@@ -11910,7 +11911,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B277" s="1">
         <v>0.375</v>
@@ -11942,7 +11943,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B278" s="1">
         <v>0.29166666666666663</v>
@@ -11974,7 +11975,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B279" s="1">
         <v>0.29166666666666663</v>
@@ -12006,7 +12007,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B280" s="1">
         <v>0.375</v>
@@ -12038,7 +12039,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B281" s="1">
         <v>0.33333333333333331</v>
@@ -12070,7 +12071,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B282" s="1">
         <v>0.375</v>
@@ -12102,7 +12103,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B283" s="1">
         <v>0.16666666666666666</v>
@@ -12134,7 +12135,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B284" s="1">
         <v>0.375</v>
@@ -12166,7 +12167,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B285" s="1">
         <v>0.375</v>
@@ -12198,7 +12199,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B286" s="1">
         <v>0.41666666666666663</v>
@@ -12230,7 +12231,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B287" s="1">
         <v>0.25</v>
@@ -12262,7 +12263,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B288" s="1">
         <v>0.375</v>
@@ -12294,7 +12295,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B289" s="1">
         <v>0.29166666666666663</v>
@@ -12326,7 +12327,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B290" s="1">
         <v>0.33333333333333331</v>
@@ -12358,7 +12359,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B291" s="1">
         <v>0.29166666666666663</v>
@@ -12390,7 +12391,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B292" s="1">
         <v>0.41666666666666663</v>
@@ -12422,7 +12423,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B293" s="1">
         <v>0.375</v>
@@ -12454,7 +12455,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B294" s="1">
         <v>0.41666666666666663</v>
@@ -12486,7 +12487,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B295" s="1">
         <v>0.41666666666666663</v>
@@ -12518,7 +12519,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B296" s="1">
         <v>0.375</v>
@@ -12550,7 +12551,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B297" s="1">
         <v>0.33333333333333331</v>
@@ -12582,7 +12583,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B298" s="1">
         <v>0.33333333333333331</v>
@@ -12614,7 +12615,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B299" s="1">
         <v>0.375</v>
@@ -12646,7 +12647,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B300" s="1">
         <v>0.33333333333333331</v>
@@ -12678,7 +12679,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B301" s="1">
         <v>0.375</v>
@@ -12710,7 +12711,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B302" s="1">
         <v>0.375</v>
@@ -12742,7 +12743,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B303" s="1">
         <v>0.33333333333333331</v>
@@ -12774,7 +12775,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B304" s="1">
         <v>0.29166666666666663</v>
@@ -12806,7 +12807,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B305" s="1">
         <v>0.41666666666666663</v>
@@ -12838,7 +12839,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B306" s="1">
         <v>0.41666666666666663</v>
@@ -12870,7 +12871,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B307" s="1">
         <v>0.33333333333333331</v>
@@ -12902,7 +12903,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B308" s="1">
         <v>0.375</v>
@@ -12934,7 +12935,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B309" s="1">
         <v>0.45833333333333331</v>
@@ -12966,7 +12967,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B310" s="1">
         <v>0.45833333333333331</v>
@@ -12998,7 +12999,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B311" s="1">
         <v>0.41666666666666663</v>
@@ -13030,7 +13031,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B312" s="1">
         <v>0.33333333333333331</v>
@@ -13062,7 +13063,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B313" s="1">
         <v>0.33333333333333331</v>
@@ -13094,7 +13095,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B314" s="1">
         <v>0.375</v>
@@ -13126,7 +13127,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B315" s="1">
         <v>0.45833333333333331</v>
@@ -13158,7 +13159,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B316" s="1">
         <v>0.41666666666666663</v>
@@ -13190,7 +13191,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B317" s="1">
         <v>0.375</v>
@@ -13222,7 +13223,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B318" s="1">
         <v>0.33333333333333331</v>
@@ -13254,7 +13255,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B319" s="1">
         <v>0.25</v>
@@ -13286,7 +13287,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B320" s="1">
         <v>0.375</v>
@@ -13318,7 +13319,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B321" s="1">
         <v>0.33333333333333331</v>
@@ -13350,7 +13351,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B322" s="1">
         <v>0.45833333333333331</v>
@@ -13382,7 +13383,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B323" s="1">
         <v>0.375</v>
@@ -13414,7 +13415,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B324" s="1">
         <v>0.33333333333333331</v>
@@ -13446,7 +13447,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B325" s="1">
         <v>0.33333333333333331</v>
@@ -13478,7 +13479,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B326" s="1">
         <v>0.25</v>
@@ -13510,7 +13511,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B327" s="1">
         <v>0.375</v>
@@ -13542,7 +13543,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B328" s="1">
         <v>0.45833333333333331</v>
@@ -13574,7 +13575,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B329" s="1">
         <v>0.25</v>
@@ -13606,7 +13607,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B330" s="1">
         <v>0.25</v>
@@ -13638,13 +13639,13 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B331" s="1">
         <v>0.625</v>
       </c>
       <c r="C331" s="1">
-        <v>1.0416666666666665</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -13670,7 +13671,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B332" s="1">
         <v>0.33333333333333331</v>
@@ -13702,7 +13703,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B333" s="1">
         <v>0.41666666666666663</v>
@@ -13734,7 +13735,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B334" s="1">
         <v>0.29166666666666663</v>
@@ -13766,7 +13767,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B335" s="1">
         <v>0.33333333333333331</v>
@@ -13798,7 +13799,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B336" s="1">
         <v>0.5</v>
@@ -13830,7 +13831,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B337" s="1">
         <v>0.375</v>
@@ -13862,7 +13863,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B338" s="1">
         <v>0.33333333333333331</v>
@@ -13894,7 +13895,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B339" s="1">
         <v>0.375</v>
@@ -13926,7 +13927,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B340" s="1">
         <v>0.29166666666666663</v>
@@ -13958,7 +13959,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B341" s="1">
         <v>0.45833333333333331</v>
@@ -13990,7 +13991,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B342" s="1">
         <v>0.375</v>
@@ -14022,7 +14023,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B343" s="1">
         <v>0.45833333333333331</v>
@@ -14054,7 +14055,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B344" s="1">
         <v>0.41666666666666663</v>
@@ -14086,7 +14087,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B345" s="1">
         <v>0.33333333333333331</v>
@@ -14118,7 +14119,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B346" s="1">
         <v>0.33333333333333331</v>
@@ -14150,7 +14151,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B347" s="1">
         <v>0.41666666666666663</v>
@@ -14182,7 +14183,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B348" s="1">
         <v>0.375</v>
@@ -14214,7 +14215,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B349" s="1">
         <v>0.45833333333333331</v>
@@ -14246,7 +14247,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B350" s="1">
         <v>0.375</v>
@@ -14278,7 +14279,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B351" s="1">
         <v>0.5</v>
@@ -14310,7 +14311,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B352" s="1">
         <v>0.25</v>
@@ -14342,7 +14343,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B353" s="1">
         <v>0.25</v>
@@ -14374,7 +14375,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B354" s="1">
         <v>0.29166666666666663</v>
@@ -14406,7 +14407,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B355" s="1">
         <v>0.375</v>
@@ -14438,7 +14439,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B356" s="1">
         <v>0.41666666666666663</v>
@@ -14470,7 +14471,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B357" s="1">
         <v>0.33333333333333331</v>
@@ -14502,7 +14503,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B358" s="1">
         <v>0.375</v>
@@ -14534,7 +14535,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B359" s="1">
         <v>0.375</v>
@@ -14566,7 +14567,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B360" s="1">
         <v>0.375</v>
@@ -14598,7 +14599,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B361" s="1">
         <v>0.33333333333333331</v>
@@ -14630,7 +14631,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B362" s="1">
         <v>8.3333333333333329E-2</v>
@@ -14662,7 +14663,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B363" s="1">
         <v>0.29166666666666663</v>
@@ -14694,7 +14695,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B364" s="1">
         <v>0.29166666666666663</v>
@@ -14726,7 +14727,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B365" s="1">
         <v>0.375</v>
@@ -14758,7 +14759,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B366" s="1">
         <v>0.5</v>
@@ -14790,7 +14791,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B367" s="1">
         <v>0.41666666666666663</v>
@@ -14822,7 +14823,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B368" s="1">
         <v>0.33333333333333331</v>
@@ -14854,7 +14855,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B369" s="1">
         <v>0.41666666666666663</v>
@@ -14886,7 +14887,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B370" s="1">
         <v>0.25</v>
@@ -14918,13 +14919,13 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B371" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C371" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -14950,7 +14951,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B372" s="1">
         <v>0.54166666666666663</v>
@@ -14982,7 +14983,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B373" s="1">
         <v>0.33333333333333331</v>
@@ -15014,7 +15015,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B374" s="1">
         <v>0.33333333333333331</v>
@@ -15046,7 +15047,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B375" s="1">
         <v>0.41666666666666663</v>
@@ -15078,7 +15079,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B376" s="1">
         <v>0.16666666666666666</v>
@@ -15110,7 +15111,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B377" s="1">
         <v>0.33333333333333331</v>
@@ -15142,7 +15143,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B378" s="1">
         <v>0.375</v>
@@ -15174,7 +15175,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B379" s="1">
         <v>0.33333333333333331</v>
@@ -15206,7 +15207,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B380" s="1">
         <v>0.33333333333333331</v>
@@ -15238,7 +15239,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B381" s="1">
         <v>0.375</v>
@@ -15270,7 +15271,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B382" s="1">
         <v>0.33333333333333331</v>
@@ -15302,7 +15303,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B383" s="1">
         <v>0.29166666666666663</v>
@@ -15334,7 +15335,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B384" s="1">
         <v>0.375</v>
@@ -15366,7 +15367,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B385" s="1">
         <v>0.375</v>
@@ -15398,7 +15399,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B386" s="1">
         <v>0.41666666666666663</v>
@@ -15430,7 +15431,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B387" s="1">
         <v>4.1666666666666664E-2</v>
@@ -15462,7 +15463,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B388" s="1">
         <v>0.375</v>
@@ -15494,7 +15495,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B389" s="1">
         <v>0.375</v>
@@ -15526,7 +15527,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B390" s="1">
         <v>0.375</v>
@@ -15558,7 +15559,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B391" s="1">
         <v>0.25</v>
@@ -15590,7 +15591,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B392" s="1">
         <v>0.375</v>
@@ -15622,7 +15623,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B393" s="1">
         <v>0.41666666666666663</v>
@@ -15654,7 +15655,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B394" s="1">
         <v>0.33333333333333331</v>
@@ -15686,7 +15687,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B395" s="1">
         <v>0.33333333333333331</v>
@@ -15718,7 +15719,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B396" s="1">
         <v>0.375</v>
@@ -15750,7 +15751,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B397" s="1">
         <v>0.375</v>
@@ -15782,7 +15783,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B398" s="1">
         <v>0.45833333333333331</v>
@@ -15814,7 +15815,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B399" s="1">
         <v>0.375</v>
@@ -15846,7 +15847,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B400" s="1">
         <v>0.41666666666666663</v>
@@ -15878,7 +15879,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B401" s="1">
         <v>0.29166666666666663</v>
@@ -15910,7 +15911,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B402" s="1">
         <v>0.41666666666666663</v>
@@ -15942,7 +15943,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B403" s="1">
         <v>0.375</v>
@@ -15974,7 +15975,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B404" s="1">
         <v>0.375</v>
@@ -16006,7 +16007,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B405" s="1">
         <v>0.41666666666666663</v>
@@ -16038,7 +16039,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B406" s="1">
         <v>0.41666666666666663</v>
@@ -16070,7 +16071,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B407" s="1">
         <v>0.33333333333333331</v>
@@ -16102,7 +16103,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B408" s="1">
         <v>0.375</v>
@@ -16134,7 +16135,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B409" s="1">
         <v>0.41666666666666663</v>
@@ -16166,13 +16167,13 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B410" s="1">
         <v>0.70833333333333326</v>
       </c>
       <c r="C410" s="1">
-        <v>1.125</v>
+        <v>0.125</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -16198,7 +16199,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B411" s="1">
         <v>0.33333333333333331</v>
@@ -16230,7 +16231,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B412" s="1">
         <v>0.33333333333333331</v>
@@ -16262,7 +16263,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B413" s="1">
         <v>0.16666666666666666</v>
@@ -16294,7 +16295,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B414" s="1">
         <v>0.29166666666666663</v>
@@ -16326,7 +16327,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B415" s="1">
         <v>0.33333333333333331</v>
@@ -16358,7 +16359,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B416" s="1">
         <v>0.29166666666666663</v>
@@ -16390,7 +16391,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B417" s="1">
         <v>0.375</v>
@@ -16422,7 +16423,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B418" s="1">
         <v>0.29166666666666663</v>
@@ -16454,7 +16455,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B419" s="1">
         <v>0.375</v>
@@ -16486,7 +16487,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B420" s="1">
         <v>0.33333333333333331</v>
@@ -16518,7 +16519,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B421" s="1">
         <v>0.375</v>
@@ -16550,7 +16551,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B422" s="1">
         <v>0.33333333333333331</v>
@@ -16582,7 +16583,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B423" s="1">
         <v>0.33333333333333331</v>
@@ -16614,7 +16615,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B424" s="1">
         <v>0.16666666666666666</v>
@@ -16646,7 +16647,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B425" s="1">
         <v>0.41666666666666663</v>
@@ -16678,7 +16679,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B426" s="1">
         <v>0.33333333333333331</v>
@@ -16710,7 +16711,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B427" s="1">
         <v>0.29166666666666663</v>
@@ -16742,7 +16743,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B428" s="1">
         <v>0.33333333333333331</v>
@@ -16774,7 +16775,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B429" s="1">
         <v>0.41666666666666663</v>
@@ -16806,7 +16807,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B430" s="1">
         <v>0.33333333333333331</v>
@@ -16838,7 +16839,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B431" s="1">
         <v>0.33333333333333331</v>
@@ -16870,7 +16871,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B432" s="1">
         <v>0.33333333333333331</v>
@@ -16902,7 +16903,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B433" s="1">
         <v>0.25</v>
@@ -16934,7 +16935,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B434" s="1">
         <v>0.33333333333333331</v>
@@ -16966,7 +16967,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B435" s="1">
         <v>0.375</v>
@@ -16998,7 +16999,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B436" s="1">
         <v>0.33333333333333331</v>
@@ -17030,7 +17031,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B437" s="1">
         <v>0.29166666666666663</v>
@@ -17062,7 +17063,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B438" s="1">
         <v>0.33333333333333331</v>
@@ -17094,7 +17095,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B439" s="1">
         <v>0.20833333333333331</v>
@@ -17126,7 +17127,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B440" s="1">
         <v>0.33333333333333331</v>
@@ -17158,7 +17159,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B441" s="1">
         <v>0.45833333333333331</v>
@@ -17190,7 +17191,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B442" s="1">
         <v>0.375</v>
@@ -17222,7 +17223,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B443" s="1">
         <v>8.3333333333333329E-2</v>
@@ -17254,7 +17255,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B444" s="1">
         <v>0.25</v>
@@ -17286,7 +17287,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B445" s="1">
         <v>0.375</v>
@@ -17318,7 +17319,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B446" s="1">
         <v>0.41666666666666663</v>
@@ -17350,7 +17351,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B447" s="1">
         <v>0.5</v>
@@ -17382,7 +17383,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B448" s="1">
         <v>0.25</v>
@@ -17414,7 +17415,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B449" s="1">
         <v>0.45833333333333331</v>
@@ -17446,7 +17447,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B450" s="1">
         <v>0.41666666666666663</v>
@@ -17478,7 +17479,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B451" s="1">
         <v>0.29166666666666663</v>
@@ -17510,7 +17511,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B452" s="1">
         <v>0.375</v>
@@ -17542,7 +17543,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B453" s="1">
         <v>0.375</v>
@@ -17574,7 +17575,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B454" s="1">
         <v>0.54166666666666663</v>
@@ -17606,7 +17607,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B455" s="1">
         <v>0.33333333333333331</v>
@@ -17638,7 +17639,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B456" s="1">
         <v>0.5</v>
@@ -17670,7 +17671,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B457" s="1">
         <v>0.41666666666666663</v>
@@ -17702,7 +17703,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B458" s="1">
         <v>0.25</v>
@@ -17734,7 +17735,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B459" s="1">
         <v>0.33333333333333331</v>
@@ -17766,7 +17767,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B460" s="1">
         <v>0.375</v>
@@ -17798,7 +17799,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B461" s="1">
         <v>0.5</v>
@@ -17830,7 +17831,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B462" s="1">
         <v>0.33333333333333331</v>
@@ -17862,7 +17863,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B463" s="1">
         <v>0.375</v>
@@ -17894,7 +17895,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B464" s="1">
         <v>0.33333333333333331</v>
@@ -17926,7 +17927,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B465" s="1">
         <v>0.33333333333333331</v>
@@ -17958,7 +17959,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B466" s="1">
         <v>0.375</v>
@@ -17990,7 +17991,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B467" s="1">
         <v>0.375</v>
@@ -18022,7 +18023,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B468" s="1">
         <v>0.375</v>
@@ -18054,7 +18055,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B469" s="1">
         <v>0.41666666666666663</v>
@@ -18086,7 +18087,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B470" s="1">
         <v>0.33333333333333331</v>
@@ -18118,7 +18119,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B471" s="1">
         <v>0.375</v>
@@ -18150,13 +18151,13 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B472" s="1">
         <v>0.625</v>
       </c>
       <c r="C472" s="1">
-        <v>1.0416666666666665</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -18182,7 +18183,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B473" s="1">
         <v>0.375</v>
@@ -18214,7 +18215,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B474" s="1">
         <v>0.375</v>
@@ -18246,7 +18247,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B475" s="1">
         <v>0.29166666666666663</v>
@@ -18278,7 +18279,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B476" s="1">
         <v>0.25</v>
@@ -18310,7 +18311,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B477" s="1">
         <v>0.25</v>
@@ -18342,7 +18343,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B478" s="1">
         <v>0.45833333333333331</v>
@@ -18374,7 +18375,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B479" s="1">
         <v>0.33333333333333331</v>
@@ -18406,7 +18407,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B480" s="1">
         <v>0.29166666666666663</v>
@@ -18438,7 +18439,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B481" s="1">
         <v>0.25</v>
@@ -18470,7 +18471,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B482" s="1">
         <v>0.5</v>
@@ -18502,7 +18503,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B483" s="1">
         <v>0.25</v>
@@ -18534,7 +18535,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B484" s="1">
         <v>0.33333333333333331</v>
@@ -18566,7 +18567,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B485" s="1">
         <v>0.375</v>
@@ -18598,7 +18599,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B486" s="1">
         <v>0.45833333333333331</v>
@@ -18630,7 +18631,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B487" s="1">
         <v>0.29166666666666663</v>
@@ -18662,7 +18663,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B488" s="1">
         <v>0.33333333333333331</v>
@@ -18694,7 +18695,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B489" s="1">
         <v>0.45833333333333331</v>
@@ -18726,7 +18727,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B490" s="1">
         <v>0.33333333333333331</v>
@@ -18758,7 +18759,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B491" s="1">
         <v>0.45833333333333331</v>
@@ -18790,7 +18791,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B492" s="1">
         <v>0.33333333333333331</v>
@@ -18822,7 +18823,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B493" s="1">
         <v>0.375</v>
@@ -18854,7 +18855,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B494" s="1">
         <v>0.41666666666666663</v>
@@ -18886,7 +18887,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B495" s="1">
         <v>0.375</v>
@@ -18918,7 +18919,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B496" s="1">
         <v>0.33333333333333331</v>
@@ -18950,7 +18951,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B497" s="1">
         <v>0.33333333333333331</v>
@@ -18982,7 +18983,7 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B498" s="1">
         <v>0.41666666666666663</v>
@@ -19014,7 +19015,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B499" s="1">
         <v>0.29166666666666663</v>
@@ -19046,7 +19047,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B500" s="1">
         <v>0.41666666666666663</v>
@@ -19078,7 +19079,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B501" s="1">
         <v>0.41666666666666663</v>
@@ -19110,7 +19111,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B502" s="1">
         <v>0.41666666666666663</v>
@@ -19142,7 +19143,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B503" s="1">
         <v>0.375</v>
@@ -19174,7 +19175,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B504" s="1">
         <v>0.41666666666666663</v>
@@ -19206,7 +19207,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B505" s="1">
         <v>0.41666666666666663</v>
@@ -19238,7 +19239,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B506" s="1">
         <v>0.33333333333333331</v>
@@ -19270,7 +19271,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B507" s="1">
         <v>0.25</v>
@@ -19302,7 +19303,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B508" s="1">
         <v>0.41666666666666663</v>
@@ -19334,7 +19335,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B509" s="1">
         <v>0.33333333333333331</v>
@@ -19366,7 +19367,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B510" s="1">
         <v>0.33333333333333331</v>
@@ -19398,7 +19399,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B511" s="1">
         <v>0.375</v>
@@ -19430,7 +19431,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B512" s="1">
         <v>0.33333333333333331</v>
@@ -19462,7 +19463,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B513" s="1">
         <v>0.41666666666666663</v>
@@ -19494,7 +19495,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B514" s="1">
         <v>0.375</v>
@@ -19526,7 +19527,7 @@
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B515" s="1">
         <v>0.375</v>
@@ -19558,7 +19559,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B516" s="1">
         <v>0.29166666666666663</v>
@@ -19590,7 +19591,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B517" s="1">
         <v>0.16666666666666666</v>
@@ -19622,7 +19623,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B518" s="1">
         <v>0.375</v>
@@ -19654,7 +19655,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B519" s="1">
         <v>0.45833333333333331</v>
@@ -19686,7 +19687,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B520" s="1">
         <v>0.375</v>
@@ -19718,7 +19719,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B521" s="1">
         <v>8.3333333333333329E-2</v>
@@ -19750,7 +19751,7 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B522" s="1">
         <v>0.375</v>
@@ -19782,7 +19783,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B523" s="1">
         <v>0.41666666666666663</v>
@@ -19814,7 +19815,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B524" s="1">
         <v>0.45833333333333331</v>
@@ -19846,7 +19847,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B525" s="1">
         <v>0.33333333333333331</v>
@@ -19878,7 +19879,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B526" s="1">
         <v>0.20833333333333331</v>
@@ -19910,7 +19911,7 @@
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B527" s="1">
         <v>0.375</v>
@@ -19942,7 +19943,7 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B528" s="1">
         <v>0.5</v>
@@ -19974,7 +19975,7 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B529" s="1">
         <v>0.33333333333333331</v>
@@ -20006,7 +20007,7 @@
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B530" s="1">
         <v>0.45833333333333331</v>
@@ -20038,7 +20039,7 @@
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B531" s="1">
         <v>0.375</v>
@@ -20070,7 +20071,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B532" s="1">
         <v>0.33333333333333331</v>
@@ -20102,7 +20103,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B533" s="1">
         <v>0.375</v>
@@ -20134,7 +20135,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B534" s="1">
         <v>0.375</v>
@@ -20166,7 +20167,7 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B535" s="1">
         <v>0.33333333333333331</v>
@@ -20198,7 +20199,7 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B536" s="1">
         <v>0.41666666666666663</v>
@@ -20230,7 +20231,7 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B537" s="1">
         <v>0.375</v>
@@ -20262,7 +20263,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B538" s="1">
         <v>0.29166666666666663</v>
@@ -20294,7 +20295,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B539" s="1">
         <v>0.33333333333333331</v>
@@ -20326,7 +20327,7 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B540" s="1">
         <v>0.41666666666666663</v>
@@ -20358,7 +20359,7 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B541" s="1">
         <v>0.375</v>
@@ -20390,7 +20391,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B542" s="1">
         <v>0.45833333333333331</v>
@@ -20422,7 +20423,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B543" s="1">
         <v>0.45833333333333331</v>
@@ -20454,7 +20455,7 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B544" s="1">
         <v>0.45833333333333331</v>
@@ -20486,7 +20487,7 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B545" s="1">
         <v>0.375</v>
@@ -20518,7 +20519,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B546" s="1">
         <v>0.375</v>
@@ -20550,7 +20551,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B547" s="1">
         <v>0.375</v>
@@ -20582,7 +20583,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B548" s="1">
         <v>0.29166666666666663</v>
@@ -20614,7 +20615,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B549" s="1">
         <v>0.375</v>
@@ -20646,7 +20647,7 @@
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B550" s="1">
         <v>0.375</v>
@@ -20678,7 +20679,7 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B551" s="1">
         <v>0.29166666666666663</v>
@@ -20710,7 +20711,7 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B552" s="1">
         <v>0.375</v>
@@ -20742,7 +20743,7 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B553" s="1">
         <v>0.375</v>
@@ -20774,7 +20775,7 @@
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B554" s="1">
         <v>0.41666666666666663</v>
@@ -20806,7 +20807,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B555" s="1">
         <v>0.29166666666666663</v>
@@ -20838,7 +20839,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B556" s="1">
         <v>0.5</v>
@@ -20870,7 +20871,7 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B557" s="1">
         <v>0.33333333333333331</v>
@@ -20902,7 +20903,7 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B558" s="1">
         <v>0.33333333333333331</v>
@@ -20934,7 +20935,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B559" s="1">
         <v>0.375</v>
@@ -20966,7 +20967,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B560" s="1">
         <v>0.45833333333333331</v>
@@ -20998,7 +20999,7 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B561" s="1">
         <v>0.33333333333333331</v>
@@ -21030,7 +21031,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B562" s="1">
         <v>0.29166666666666663</v>
@@ -21062,7 +21063,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B563" s="1">
         <v>0.41666666666666663</v>
@@ -21094,7 +21095,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B564" s="1">
         <v>0.33333333333333331</v>
@@ -21126,7 +21127,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B565" s="1">
         <v>0.375</v>
@@ -21158,7 +21159,7 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B566" s="1">
         <v>0.375</v>
@@ -21190,7 +21191,7 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B567" s="1">
         <v>0.20833333333333331</v>
@@ -21222,7 +21223,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B568" s="1">
         <v>0.20833333333333331</v>
@@ -21254,7 +21255,7 @@
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B569" s="1">
         <v>0.33333333333333331</v>
@@ -21286,7 +21287,7 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B570" s="1">
         <v>0.20833333333333331</v>
@@ -21318,7 +21319,7 @@
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B571" s="1">
         <v>0.375</v>
@@ -21350,7 +21351,7 @@
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B572" s="1">
         <v>0.41666666666666663</v>
@@ -21382,7 +21383,7 @@
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B573" s="1">
         <v>0.375</v>
@@ -21414,7 +21415,7 @@
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B574" s="1">
         <v>0.41666666666666663</v>
@@ -21446,7 +21447,7 @@
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B575" s="1">
         <v>0.20833333333333331</v>
@@ -21478,7 +21479,7 @@
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B576" s="1">
         <v>0.33333333333333331</v>
@@ -21510,7 +21511,7 @@
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B577" s="1">
         <v>0.41666666666666663</v>
@@ -21542,7 +21543,7 @@
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B578" s="1">
         <v>0.375</v>
@@ -21574,7 +21575,7 @@
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B579" s="1">
         <v>0.33333333333333331</v>
@@ -21606,7 +21607,7 @@
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B580" s="1">
         <v>0.375</v>
@@ -21638,7 +21639,7 @@
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B581" s="1">
         <v>0.45833333333333331</v>
@@ -21670,7 +21671,7 @@
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B582" s="1">
         <v>0.29166666666666663</v>
@@ -21702,7 +21703,7 @@
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B583" s="1">
         <v>0.33333333333333331</v>
@@ -21734,7 +21735,7 @@
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B584" s="1">
         <v>0.33333333333333331</v>
@@ -21766,7 +21767,7 @@
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B585" s="1">
         <v>0.375</v>
@@ -21798,7 +21799,7 @@
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B586" s="1">
         <v>0.29166666666666663</v>
@@ -21830,7 +21831,7 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B587" s="1">
         <v>0.33333333333333331</v>
@@ -21862,7 +21863,7 @@
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B588" s="1">
         <v>0.29166666666666663</v>
@@ -21894,7 +21895,7 @@
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B589" s="1">
         <v>0.375</v>
@@ -21926,7 +21927,7 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B590" s="1">
         <v>0.33333333333333331</v>
@@ -21958,7 +21959,7 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B591" s="1">
         <v>0.33333333333333331</v>
@@ -21990,7 +21991,7 @@
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B592" s="1">
         <v>0.41666666666666663</v>
@@ -22022,7 +22023,7 @@
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B593" s="1">
         <v>0.45833333333333331</v>
@@ -22054,7 +22055,7 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B594" s="1">
         <v>0.33333333333333331</v>
@@ -22086,7 +22087,7 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B595" s="1">
         <v>0.33333333333333331</v>
@@ -22118,7 +22119,7 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B596" s="1">
         <v>0.375</v>
@@ -22150,7 +22151,7 @@
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B597" s="1">
         <v>0.33333333333333331</v>
@@ -22182,7 +22183,7 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B598" s="1">
         <v>0.29166666666666663</v>
@@ -22214,7 +22215,7 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B599" s="1">
         <v>0.375</v>
@@ -22246,7 +22247,7 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B600" s="1">
         <v>0.25</v>
@@ -22278,7 +22279,7 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B601" s="1">
         <v>0.41666666666666663</v>
@@ -22310,7 +22311,7 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B602" s="1">
         <v>0.375</v>
@@ -22342,7 +22343,7 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B603" s="1">
         <v>0.375</v>
@@ -22374,7 +22375,7 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B604" s="1">
         <v>0.54166666666666663</v>
@@ -22406,7 +22407,7 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B605" s="1">
         <v>0.25</v>
@@ -22438,7 +22439,7 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B606" s="1">
         <v>0.29166666666666663</v>
@@ -22470,7 +22471,7 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B607" s="1">
         <v>0.33333333333333331</v>
@@ -22502,7 +22503,7 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B608" s="1">
         <v>0.29166666666666663</v>
@@ -22534,7 +22535,7 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B609" s="1">
         <v>0.375</v>
@@ -22566,7 +22567,7 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B610" s="1">
         <v>0.25</v>
@@ -22598,7 +22599,7 @@
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B611" s="1">
         <v>0.41666666666666663</v>
@@ -22630,7 +22631,7 @@
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B612" s="1">
         <v>0.375</v>
@@ -22662,7 +22663,7 @@
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B613" s="1">
         <v>0.375</v>
@@ -22694,7 +22695,7 @@
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B614" s="1">
         <v>0.33333333333333331</v>
@@ -22726,7 +22727,7 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B615" s="1">
         <v>0.29166666666666663</v>
@@ -22758,7 +22759,7 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B616" s="1">
         <v>0.41666666666666663</v>
@@ -22790,7 +22791,7 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B617" s="1">
         <v>0.375</v>
@@ -22822,7 +22823,7 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B618" s="1">
         <v>0.375</v>
@@ -22854,7 +22855,7 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B619" s="1">
         <v>0.29166666666666663</v>
@@ -22886,7 +22887,7 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B620" s="1">
         <v>0.33333333333333331</v>
@@ -22918,7 +22919,7 @@
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B621" s="1">
         <v>0.33333333333333331</v>
@@ -22950,7 +22951,7 @@
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B622" s="1">
         <v>0.20833333333333331</v>
@@ -22982,7 +22983,7 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B623" s="1">
         <v>0.29166666666666663</v>
@@ -23014,7 +23015,7 @@
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B624" s="1">
         <v>0.33333333333333331</v>
@@ -23046,7 +23047,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B625" s="1">
         <v>0.33333333333333331</v>
@@ -23078,7 +23079,7 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B626" s="1">
         <v>0.33333333333333331</v>
@@ -23110,7 +23111,7 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B627" s="1">
         <v>0.29166666666666663</v>
@@ -23142,7 +23143,7 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B628" s="1">
         <v>0.375</v>
@@ -23174,7 +23175,7 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B629" s="1">
         <v>0.33333333333333331</v>
@@ -23206,7 +23207,7 @@
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B630" s="1">
         <v>0.375</v>
@@ -23238,7 +23239,7 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B631" s="1">
         <v>0.25</v>
@@ -23270,7 +23271,7 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B632" s="1">
         <v>0.375</v>
@@ -23302,7 +23303,7 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B633" s="1">
         <v>0.33333333333333331</v>
@@ -23334,7 +23335,7 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B634" s="1">
         <v>0.41666666666666663</v>
@@ -23366,7 +23367,7 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B635" s="1">
         <v>0.375</v>
@@ -23398,7 +23399,7 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B636" s="1">
         <v>0.45833333333333331</v>
@@ -23430,7 +23431,7 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B637" s="1">
         <v>0.45833333333333331</v>
@@ -23462,7 +23463,7 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B638" s="1">
         <v>0.33333333333333331</v>
@@ -23494,7 +23495,7 @@
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B639" s="1">
         <v>0.375</v>
@@ -23526,7 +23527,7 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B640" s="1">
         <v>0.29166666666666663</v>
@@ -23558,7 +23559,7 @@
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B641" s="1">
         <v>0.375</v>
@@ -23590,7 +23591,7 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B642" s="1">
         <v>0.33333333333333331</v>
@@ -23622,7 +23623,7 @@
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B643" s="1">
         <v>0.41666666666666663</v>
@@ -23654,7 +23655,7 @@
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B644" s="1">
         <v>0.5</v>
@@ -23686,7 +23687,7 @@
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B645" s="1">
         <v>0.54166666666666663</v>
@@ -23718,7 +23719,7 @@
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B646" s="1">
         <v>0.45833333333333331</v>
@@ -23750,7 +23751,7 @@
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B647" s="1">
         <v>0.375</v>
@@ -23782,7 +23783,7 @@
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B648" s="1">
         <v>0.20833333333333331</v>
@@ -23814,7 +23815,7 @@
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B649" s="1">
         <v>0.33333333333333331</v>
@@ -23846,7 +23847,7 @@
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B650" s="1">
         <v>0.375</v>
@@ -23878,7 +23879,7 @@
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B651" s="1">
         <v>0.33333333333333331</v>
@@ -23910,7 +23911,7 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B652" s="1">
         <v>0.41666666666666663</v>
@@ -23942,7 +23943,7 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B653" s="1">
         <v>0.33333333333333331</v>
@@ -23974,7 +23975,7 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B654" s="1">
         <v>0.45833333333333331</v>
@@ -24006,7 +24007,7 @@
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B655" s="1">
         <v>0.375</v>
@@ -24038,7 +24039,7 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B656" s="1">
         <v>0.54166666666666663</v>
@@ -24070,7 +24071,7 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B657" s="1">
         <v>0.375</v>
@@ -24102,7 +24103,7 @@
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B658" s="1">
         <v>0.375</v>
@@ -24134,7 +24135,7 @@
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B659" s="1">
         <v>0.29166666666666663</v>
@@ -24166,7 +24167,7 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B660" s="1">
         <v>0.375</v>
@@ -24198,7 +24199,7 @@
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B661" s="1">
         <v>0.375</v>
@@ -24230,7 +24231,7 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B662" s="1">
         <v>0.41666666666666663</v>
@@ -24262,7 +24263,7 @@
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B663" s="1">
         <v>0.33333333333333331</v>
@@ -24294,7 +24295,7 @@
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B664" s="1">
         <v>0.29166666666666663</v>
@@ -24326,7 +24327,7 @@
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B665" s="1">
         <v>0.33333333333333331</v>
@@ -24358,7 +24359,7 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B666" s="1">
         <v>0.33333333333333331</v>
@@ -24390,7 +24391,7 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B667" s="1">
         <v>0.33333333333333331</v>
@@ -24422,7 +24423,7 @@
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B668" s="1">
         <v>0.375</v>
@@ -24454,7 +24455,7 @@
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B669" s="1">
         <v>0.375</v>
@@ -24486,7 +24487,7 @@
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B670" s="1">
         <v>0.29166666666666663</v>
@@ -24518,7 +24519,7 @@
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B671" s="1">
         <v>0.29166666666666663</v>
@@ -24550,7 +24551,7 @@
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B672" s="1">
         <v>0.29166666666666663</v>
@@ -24582,7 +24583,7 @@
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B673" s="1">
         <v>0.375</v>
@@ -24614,7 +24615,7 @@
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B674" s="1">
         <v>0.25</v>
@@ -24646,7 +24647,7 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B675" s="1">
         <v>0.41666666666666663</v>
@@ -24678,7 +24679,7 @@
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B676" s="1">
         <v>0.29166666666666663</v>
@@ -24710,7 +24711,7 @@
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B677" s="1">
         <v>0.375</v>
@@ -24742,7 +24743,7 @@
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B678" s="1">
         <v>0.375</v>
@@ -24774,7 +24775,7 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B679" s="1">
         <v>0.29166666666666663</v>
@@ -24806,7 +24807,7 @@
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B680" s="1">
         <v>0.25</v>
@@ -24838,7 +24839,7 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B681" s="1">
         <v>0.375</v>
@@ -24870,7 +24871,7 @@
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B682" s="1">
         <v>0.375</v>
@@ -24902,7 +24903,7 @@
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B683" s="1">
         <v>0.41666666666666663</v>
@@ -24934,7 +24935,7 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B684" s="1">
         <v>0.33333333333333331</v>
@@ -24966,7 +24967,7 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B685" s="1">
         <v>0.33333333333333331</v>
@@ -24998,7 +24999,7 @@
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B686" s="1">
         <v>0.54166666666666663</v>
@@ -25030,7 +25031,7 @@
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B687" s="1">
         <v>0.41666666666666663</v>
@@ -25062,7 +25063,7 @@
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B688" s="1">
         <v>0.375</v>
@@ -25094,7 +25095,7 @@
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B689" s="1">
         <v>0.25</v>
@@ -25126,7 +25127,7 @@
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B690" s="1">
         <v>0.375</v>
@@ -25158,7 +25159,7 @@
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B691" s="1">
         <v>0.20833333333333331</v>
@@ -25190,7 +25191,7 @@
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B692" s="1">
         <v>0.33333333333333331</v>
@@ -25222,7 +25223,7 @@
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B693" s="1">
         <v>0.41666666666666663</v>
@@ -25254,7 +25255,7 @@
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B694" s="1">
         <v>0.33333333333333331</v>
@@ -25286,7 +25287,7 @@
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B695" s="1">
         <v>0.33333333333333331</v>
@@ -25318,7 +25319,7 @@
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B696" s="1">
         <v>0.41666666666666663</v>
@@ -25350,7 +25351,7 @@
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B697" s="1">
         <v>0.375</v>
@@ -25382,7 +25383,7 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B698" s="1">
         <v>0.375</v>
@@ -25414,7 +25415,7 @@
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B699" s="1">
         <v>0.375</v>
@@ -25446,7 +25447,7 @@
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B700" s="1">
         <v>0.375</v>
@@ -25478,7 +25479,7 @@
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B701" s="1">
         <v>0.29166666666666663</v>
@@ -25510,7 +25511,7 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B702" s="1">
         <v>0.45833333333333331</v>
@@ -25542,7 +25543,7 @@
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B703" s="1">
         <v>0.33333333333333331</v>
@@ -25574,7 +25575,7 @@
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B704" s="1">
         <v>0.375</v>
@@ -25606,7 +25607,7 @@
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B705" s="1">
         <v>0.375</v>
@@ -25638,7 +25639,7 @@
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B706" s="1">
         <v>0.375</v>
@@ -25670,7 +25671,7 @@
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B707" s="1">
         <v>0.33333333333333331</v>
@@ -25702,7 +25703,7 @@
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B708" s="1">
         <v>0.375</v>
@@ -25734,7 +25735,7 @@
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B709" s="1">
         <v>0.33333333333333331</v>
@@ -25766,7 +25767,7 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B710" s="1">
         <v>0.29166666666666663</v>
@@ -25798,7 +25799,7 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B711" s="1">
         <v>0.33333333333333331</v>
@@ -25830,7 +25831,7 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B712" s="1">
         <v>0.33333333333333331</v>
@@ -25862,7 +25863,7 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B713" s="1">
         <v>0.41666666666666663</v>
@@ -25894,7 +25895,7 @@
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B714" s="1">
         <v>0.25</v>
@@ -25926,7 +25927,7 @@
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B715" s="1">
         <v>0.375</v>
@@ -25958,7 +25959,7 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B716" s="1">
         <v>0.45833333333333331</v>
@@ -25990,7 +25991,7 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B717" s="1">
         <v>0.33333333333333331</v>
@@ -26022,7 +26023,7 @@
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B718" s="1">
         <v>0.375</v>
@@ -26054,7 +26055,7 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B719" s="1">
         <v>0.41666666666666663</v>
@@ -26086,7 +26087,7 @@
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B720" s="1">
         <v>0.375</v>
@@ -26118,7 +26119,7 @@
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B721" s="1">
         <v>0.41666666666666663</v>
@@ -26150,7 +26151,7 @@
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B722" s="1">
         <v>0.41666666666666663</v>
@@ -26182,7 +26183,7 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B723" s="1">
         <v>0.375</v>
@@ -26214,7 +26215,7 @@
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B724" s="1">
         <v>0.41666666666666663</v>
@@ -26246,7 +26247,7 @@
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B725" s="1">
         <v>0.45833333333333331</v>
@@ -26278,7 +26279,7 @@
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B726" s="1">
         <v>0.54166666666666663</v>
@@ -26310,7 +26311,7 @@
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B727" s="1">
         <v>0.33333333333333331</v>
@@ -26342,7 +26343,7 @@
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B728" s="1">
         <v>0.375</v>
@@ -26374,7 +26375,7 @@
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B729" s="1">
         <v>0.375</v>
@@ -26406,7 +26407,7 @@
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B730" s="1">
         <v>0.20833333333333331</v>
@@ -26438,7 +26439,7 @@
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B731" s="1">
         <v>0.41666666666666663</v>
@@ -26470,7 +26471,7 @@
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B732" s="1">
         <v>0.375</v>
@@ -26502,7 +26503,7 @@
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B733" s="1">
         <v>0.41666666666666663</v>
@@ -26534,7 +26535,7 @@
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B734" s="1">
         <v>0.375</v>
@@ -26566,7 +26567,7 @@
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B735" s="1">
         <v>0.375</v>
@@ -26598,7 +26599,7 @@
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B736" s="1">
         <v>0.29166666666666663</v>
@@ -26630,7 +26631,7 @@
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B737" s="1">
         <v>0.29166666666666663</v>
@@ -26662,7 +26663,7 @@
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B738" s="1">
         <v>0.41666666666666663</v>
@@ -26694,7 +26695,7 @@
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B739" s="1">
         <v>0.375</v>
@@ -26726,13 +26727,13 @@
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B740" s="1">
         <v>0.625</v>
       </c>
       <c r="C740" s="1">
-        <v>1.0416666666666665</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D740">
         <v>0</v>
@@ -26758,7 +26759,7 @@
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B741" s="1">
         <v>0.33333333333333331</v>
@@ -26790,7 +26791,7 @@
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B742" s="1">
         <v>0.25</v>
@@ -26822,7 +26823,7 @@
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B743" s="1">
         <v>0.29166666666666663</v>
@@ -26854,7 +26855,7 @@
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B744" s="1">
         <v>0.33333333333333331</v>
@@ -26886,7 +26887,7 @@
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B745" s="1">
         <v>0.375</v>
@@ -26918,7 +26919,7 @@
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B746" s="1">
         <v>0.41666666666666663</v>
@@ -26950,7 +26951,7 @@
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B747" s="1">
         <v>0.375</v>
@@ -26982,7 +26983,7 @@
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B748" s="1">
         <v>0.375</v>
@@ -27014,7 +27015,7 @@
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B749" s="1">
         <v>0.54166666666666663</v>
@@ -27046,7 +27047,7 @@
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B750" s="1">
         <v>0.375</v>
@@ -27078,7 +27079,7 @@
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B751" s="1">
         <v>0.375</v>
@@ -27110,7 +27111,7 @@
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B752" s="1">
         <v>0.45833333333333331</v>
@@ -27142,7 +27143,7 @@
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B753" s="1">
         <v>0.375</v>
@@ -27174,7 +27175,7 @@
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B754" s="1">
         <v>0.25</v>
@@ -27206,7 +27207,7 @@
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B755" s="1">
         <v>0.375</v>
@@ -27238,7 +27239,7 @@
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B756" s="1">
         <v>0.29166666666666663</v>
@@ -27270,7 +27271,7 @@
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B757" s="1">
         <v>0.45833333333333331</v>
@@ -27302,7 +27303,7 @@
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B758" s="1">
         <v>0.33333333333333331</v>
@@ -27334,7 +27335,7 @@
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B759" s="1">
         <v>0.41666666666666663</v>
@@ -27366,7 +27367,7 @@
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B760" s="1">
         <v>0.25</v>
@@ -27398,7 +27399,7 @@
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B761" s="1">
         <v>0.33333333333333331</v>
@@ -27430,7 +27431,7 @@
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B762" s="1">
         <v>0.45833333333333331</v>
@@ -27462,7 +27463,7 @@
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B763" s="1">
         <v>0.5</v>
@@ -27494,7 +27495,7 @@
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B764" s="1">
         <v>0.5</v>
@@ -27526,7 +27527,7 @@
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B765" s="1">
         <v>0.5</v>
@@ -27558,7 +27559,7 @@
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B766" s="1">
         <v>0.375</v>
@@ -27590,7 +27591,7 @@
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B767" s="1">
         <v>0.375</v>
@@ -27622,7 +27623,7 @@
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B768" s="1">
         <v>0.375</v>
@@ -27654,7 +27655,7 @@
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B769" s="1">
         <v>0.33333333333333331</v>
@@ -27686,7 +27687,7 @@
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B770" s="1">
         <v>0.29166666666666663</v>
@@ -27718,7 +27719,7 @@
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B771" s="1">
         <v>0.33333333333333331</v>
@@ -27750,7 +27751,7 @@
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B772" s="1">
         <v>0.41666666666666663</v>
@@ -27782,7 +27783,7 @@
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B773" s="1">
         <v>0.25</v>
@@ -27814,7 +27815,7 @@
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B774" s="1">
         <v>0.25</v>
@@ -27846,7 +27847,7 @@
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B775" s="1">
         <v>0.29166666666666663</v>
@@ -27878,7 +27879,7 @@
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B776" s="1">
         <v>0.45833333333333331</v>
@@ -27910,7 +27911,7 @@
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B777" s="1">
         <v>0.41666666666666663</v>
@@ -27942,7 +27943,7 @@
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B778" s="1">
         <v>0.41666666666666663</v>
@@ -27974,7 +27975,7 @@
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B779" s="1">
         <v>0.33333333333333331</v>
@@ -28006,7 +28007,7 @@
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B780" s="1">
         <v>0.45833333333333331</v>
@@ -28038,7 +28039,7 @@
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B781" s="1">
         <v>0.29166666666666663</v>
@@ -28070,7 +28071,7 @@
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B782" s="1">
         <v>0.29166666666666663</v>
@@ -28102,7 +28103,7 @@
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B783" s="1">
         <v>0.375</v>
@@ -28134,7 +28135,7 @@
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B784" s="1">
         <v>0.45833333333333331</v>
@@ -28166,7 +28167,7 @@
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B785" s="1">
         <v>0.41666666666666663</v>
@@ -28198,7 +28199,7 @@
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B786" s="1">
         <v>0.375</v>
@@ -28230,7 +28231,7 @@
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B787" s="1">
         <v>0.33333333333333331</v>
@@ -28262,7 +28263,7 @@
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B788" s="1">
         <v>0.375</v>
@@ -28294,7 +28295,7 @@
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B789" s="1">
         <v>0.375</v>
@@ -28326,7 +28327,7 @@
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B790" s="1">
         <v>0.33333333333333331</v>
@@ -28358,7 +28359,7 @@
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B791" s="1">
         <v>0.45833333333333331</v>
@@ -28390,7 +28391,7 @@
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B792" s="1">
         <v>0.29166666666666663</v>
@@ -28422,7 +28423,7 @@
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B793" s="1">
         <v>0.33333333333333331</v>
@@ -28454,7 +28455,7 @@
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B794" s="1">
         <v>0.41666666666666663</v>
@@ -28486,7 +28487,7 @@
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B795" s="1">
         <v>0.33333333333333331</v>
@@ -28518,7 +28519,7 @@
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B796" s="1">
         <v>0.29166666666666663</v>
@@ -28550,7 +28551,7 @@
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B797" s="1">
         <v>0.41666666666666663</v>
@@ -28582,7 +28583,7 @@
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B798" s="1">
         <v>0.45833333333333331</v>
@@ -28614,7 +28615,7 @@
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B799" s="1">
         <v>0.33333333333333331</v>
@@ -28646,7 +28647,7 @@
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B800" s="1">
         <v>0.45833333333333331</v>
@@ -28678,13 +28679,13 @@
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B801" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C801" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D801">
         <v>1</v>
@@ -28710,13 +28711,13 @@
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B802" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C802" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D802">
         <v>0</v>
@@ -28742,7 +28743,7 @@
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B803" s="1">
         <v>0.5</v>
@@ -28774,7 +28775,7 @@
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B804" s="1">
         <v>0.41666666666666663</v>
@@ -28806,7 +28807,7 @@
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B805" s="1">
         <v>0.33333333333333331</v>
@@ -28838,7 +28839,7 @@
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B806" s="1">
         <v>0.45833333333333331</v>
@@ -28870,7 +28871,7 @@
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B807" s="1">
         <v>0.33333333333333331</v>
@@ -28902,7 +28903,7 @@
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B808" s="1">
         <v>0.33333333333333331</v>
@@ -28934,7 +28935,7 @@
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B809" s="1">
         <v>0.33333333333333331</v>
@@ -28966,7 +28967,7 @@
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B810" s="1">
         <v>0.29166666666666663</v>
@@ -28998,7 +28999,7 @@
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B811" s="1">
         <v>0.33333333333333331</v>
@@ -29030,7 +29031,7 @@
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B812" s="1">
         <v>0.375</v>
@@ -29062,7 +29063,7 @@
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B813" s="1">
         <v>0.375</v>
@@ -29094,7 +29095,7 @@
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B814" s="1">
         <v>0.33333333333333331</v>
@@ -29126,7 +29127,7 @@
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B815" s="1">
         <v>0.45833333333333331</v>
@@ -29158,7 +29159,7 @@
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B816" s="1">
         <v>0.375</v>
@@ -29190,7 +29191,7 @@
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B817" s="1">
         <v>0.41666666666666663</v>
@@ -29222,7 +29223,7 @@
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B818" s="1">
         <v>0.45833333333333331</v>
@@ -29254,13 +29255,13 @@
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B819" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C819" s="1">
-        <v>1.0833333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D819">
         <v>0</v>
@@ -29286,7 +29287,7 @@
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B820" s="1">
         <v>0.41666666666666663</v>
@@ -29318,7 +29319,7 @@
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B821" s="1">
         <v>0.29166666666666663</v>
@@ -29350,7 +29351,7 @@
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B822" s="1">
         <v>0.29166666666666663</v>
@@ -29382,7 +29383,7 @@
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B823" s="1">
         <v>0.29166666666666663</v>
@@ -29414,7 +29415,7 @@
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B824" s="1">
         <v>0.25</v>
@@ -29446,7 +29447,7 @@
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B825" s="1">
         <v>0.33333333333333331</v>
@@ -29478,7 +29479,7 @@
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B826" s="1">
         <v>0.375</v>
@@ -29510,7 +29511,7 @@
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B827" s="1">
         <v>0.375</v>
@@ -29542,7 +29543,7 @@
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B828" s="1">
         <v>0.41666666666666663</v>
@@ -29574,7 +29575,7 @@
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B829" s="1">
         <v>0.33333333333333331</v>
@@ -29606,7 +29607,7 @@
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B830" s="1">
         <v>0.33333333333333331</v>
@@ -29638,7 +29639,7 @@
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B831" s="1">
         <v>0.33333333333333331</v>
@@ -29670,7 +29671,7 @@
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B832" s="1">
         <v>0.375</v>
@@ -29702,7 +29703,7 @@
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B833" s="1">
         <v>0.5</v>
@@ -29734,7 +29735,7 @@
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B834" s="1">
         <v>0.45833333333333331</v>
@@ -29766,7 +29767,7 @@
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B835" s="1">
         <v>0.29166666666666663</v>
@@ -29798,7 +29799,7 @@
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B836" s="1">
         <v>0.5</v>
@@ -29830,7 +29831,7 @@
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B837" s="1">
         <v>0.375</v>
@@ -29862,7 +29863,7 @@
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B838" s="1">
         <v>0.33333333333333331</v>
@@ -29894,7 +29895,7 @@
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B839" s="1">
         <v>0.375</v>
@@ -29926,7 +29927,7 @@
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B840" s="1">
         <v>0.375</v>
@@ -29958,7 +29959,7 @@
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B841" s="1">
         <v>0.375</v>
@@ -29990,7 +29991,7 @@
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B842" s="1">
         <v>0.375</v>
@@ -30022,7 +30023,7 @@
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B843" s="1">
         <v>0.20833333333333331</v>
@@ -30054,7 +30055,7 @@
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B844" s="1">
         <v>0.33333333333333331</v>
@@ -30086,7 +30087,7 @@
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B845" s="1">
         <v>0.375</v>
@@ -30118,7 +30119,7 @@
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B846" s="1">
         <v>0.29166666666666663</v>
@@ -30150,7 +30151,7 @@
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B847" s="1">
         <v>0.33333333333333331</v>
@@ -30182,7 +30183,7 @@
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B848" s="1">
         <v>0.375</v>
@@ -30214,7 +30215,7 @@
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B849" s="1">
         <v>0.45833333333333331</v>
@@ -30246,7 +30247,7 @@
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B850" s="1">
         <v>0.375</v>
@@ -30278,7 +30279,7 @@
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B851" s="1">
         <v>0.33333333333333331</v>
@@ -30310,7 +30311,7 @@
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B852" s="1">
         <v>0.29166666666666663</v>
@@ -30342,7 +30343,7 @@
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B853" s="1">
         <v>0.375</v>
@@ -30374,7 +30375,7 @@
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B854" s="1">
         <v>4.1666666666666664E-2</v>
@@ -30406,7 +30407,7 @@
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B855" s="1">
         <v>0.33333333333333331</v>
@@ -30438,7 +30439,7 @@
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B856" s="1">
         <v>0.375</v>
@@ -30470,7 +30471,7 @@
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B857" s="1">
         <v>0.25</v>
@@ -30502,7 +30503,7 @@
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B858" s="1">
         <v>0.375</v>
@@ -30534,13 +30535,13 @@
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B859" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C859" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D859">
         <v>0</v>
@@ -30566,7 +30567,7 @@
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B860" s="1">
         <v>0.29166666666666663</v>
@@ -30598,13 +30599,13 @@
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B861" s="1">
         <v>0.58333333333333326</v>
       </c>
       <c r="C861" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D861">
         <v>0</v>
@@ -30630,7 +30631,7 @@
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B862" s="1">
         <v>0.41666666666666663</v>
@@ -30662,7 +30663,7 @@
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B863" s="1">
         <v>0.29166666666666663</v>
@@ -30694,7 +30695,7 @@
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B864" s="1">
         <v>0.41666666666666663</v>
@@ -30726,7 +30727,7 @@
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B865" s="1">
         <v>0.375</v>
@@ -30758,7 +30759,7 @@
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B866" s="1">
         <v>0.29166666666666663</v>
@@ -30790,7 +30791,7 @@
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B867" s="1">
         <v>0.29166666666666663</v>
@@ -30822,7 +30823,7 @@
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B868" s="1">
         <v>0.45833333333333331</v>
@@ -30854,7 +30855,7 @@
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B869" s="1">
         <v>0.375</v>
@@ -30886,7 +30887,7 @@
     </row>
     <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B870" s="1">
         <v>0.5</v>
@@ -30918,7 +30919,7 @@
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B871" s="1">
         <v>0.33333333333333331</v>
@@ -30950,7 +30951,7 @@
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B872" s="1">
         <v>0.375</v>
